--- a/Amazon Product Checkout Task/target/classes/testData/TestCaseData.xlsx
+++ b/Amazon Product Checkout Task/target/classes/testData/TestCaseData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolsQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Srinivas_Chintakindh\eclipse-workspace\project task\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF1517D-9F1E-4F09-84CE-CDCD073E9A6F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A90470A-5DB0-44BC-A479-6224831AAF2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{933B439E-8AA4-4903-9C71-6A8FCF8A403E}"/>
   </bookViews>
@@ -25,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>nexus</t>
   </si>
 </sst>
 </file>
@@ -407,9 +410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC2D986-E2E3-4EDA-B503-F61E74F55944}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -418,6 +423,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
